--- a/output/StructureDefinition-cls-obo-cmo-platelet-measurement.xlsx
+++ b/output/StructureDefinition-cls-obo-cmo-platelet-measurement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T14:45:09+01:00</t>
+    <t>2023-03-06T15:09:59+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-obo-cmo-platelet-measurement.xlsx
+++ b/output/StructureDefinition-cls-obo-cmo-platelet-measurement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T15:09:59+01:00</t>
+    <t>2023-03-06T16:00:54+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-obo-cmo-platelet-measurement.xlsx
+++ b/output/StructureDefinition-cls-obo-cmo-platelet-measurement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T16:00:54+01:00</t>
+    <t>2023-03-06T16:38:28+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-obo-cmo-platelet-measurement.xlsx
+++ b/output/StructureDefinition-cls-obo-cmo-platelet-measurement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T16:38:28+01:00</t>
+    <t>2023-03-06T17:18:53+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-obo-cmo-platelet-measurement.xlsx
+++ b/output/StructureDefinition-cls-obo-cmo-platelet-measurement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T17:18:53+01:00</t>
+    <t>2023-03-06T21:43:48+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-obo-cmo-platelet-measurement.xlsx
+++ b/output/StructureDefinition-cls-obo-cmo-platelet-measurement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T21:43:48+01:00</t>
+    <t>2023-03-07T20:03:22+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4390,7 +4390,7 @@
         <v>81</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>82</v>
@@ -4750,7 +4750,7 @@
         <v>92</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>82</v>
@@ -4992,7 +4992,7 @@
         <v>92</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>82</v>
@@ -5842,7 +5842,7 @@
         <v>81</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>82</v>
@@ -6202,7 +6202,7 @@
         <v>92</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>82</v>
@@ -6444,7 +6444,7 @@
         <v>92</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>82</v>
@@ -7294,7 +7294,7 @@
         <v>81</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>82</v>
@@ -7654,7 +7654,7 @@
         <v>92</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>82</v>
@@ -7896,7 +7896,7 @@
         <v>92</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>82</v>
@@ -8746,7 +8746,7 @@
         <v>81</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>82</v>
@@ -9106,7 +9106,7 @@
         <v>92</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>82</v>
@@ -9348,7 +9348,7 @@
         <v>92</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>82</v>

--- a/output/StructureDefinition-cls-obo-cmo-platelet-measurement.xlsx
+++ b/output/StructureDefinition-cls-obo-cmo-platelet-measurement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T20:03:22+01:00</t>
+    <t>2023-03-08T09:48:37+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-obo-cmo-platelet-measurement.xlsx
+++ b/output/StructureDefinition-cls-obo-cmo-platelet-measurement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-08T09:48:37+01:00</t>
+    <t>2023-03-09T13:29:22+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-obo-cmo-platelet-measurement.xlsx
+++ b/output/StructureDefinition-cls-obo-cmo-platelet-measurement.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$99</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$111</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3850" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4312" uniqueCount="595">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T13:29:22+01:00</t>
+    <t>2023-03-10T10:38:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -632,7 +632,7 @@
     <t>Observation.category</t>
   </si>
   <si>
-    <t>4</t>
+    <t>5</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
@@ -965,6 +965,48 @@
   </si>
   <si>
     <t>Observation.category:ClinicalMeasurement.text</t>
+  </si>
+  <si>
+    <t>Observation.category:BloodMeasurement</t>
+  </si>
+  <si>
+    <t>BloodMeasurement</t>
+  </si>
+  <si>
+    <t>Observation.category:BloodMeasurement.id</t>
+  </si>
+  <si>
+    <t>Observation.category:BloodMeasurement.extension</t>
+  </si>
+  <si>
+    <t>Observation.category:BloodMeasurement.coding</t>
+  </si>
+  <si>
+    <t>Observation.category:BloodMeasurement.coding.id</t>
+  </si>
+  <si>
+    <t>Observation.category:BloodMeasurement.coding.extension</t>
+  </si>
+  <si>
+    <t>Observation.category:BloodMeasurement.coding.system</t>
+  </si>
+  <si>
+    <t>Observation.category:BloodMeasurement.coding.version</t>
+  </si>
+  <si>
+    <t>Observation.category:BloodMeasurement.coding.code</t>
+  </si>
+  <si>
+    <t>CMO_0000035</t>
+  </si>
+  <si>
+    <t>Observation.category:BloodMeasurement.coding.display</t>
+  </si>
+  <si>
+    <t>Observation.category:BloodMeasurement.coding.userSelected</t>
+  </si>
+  <si>
+    <t>Observation.category:BloodMeasurement.text</t>
   </si>
   <si>
     <t>Observation.category:BloodCellMeasurement</t>
@@ -2143,7 +2185,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP99"/>
+  <dimension ref="A1:AP111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4866,7 +4908,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>92</v>
@@ -6318,7 +6360,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>92</v>
@@ -7770,7 +7812,7 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>92</v>
@@ -9222,7 +9264,7 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>92</v>
@@ -9822,11 +9864,13 @@
         <v>335</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="C64" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="C64" t="s" s="2">
+        <v>336</v>
+      </c>
       <c r="D64" t="s" s="2">
-        <v>336</v>
+        <v>82</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9836,28 +9880,28 @@
         <v>92</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K64" t="s" s="2">
         <v>198</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>337</v>
+        <v>199</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>338</v>
+        <v>200</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>339</v>
+        <v>201</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>340</v>
+        <v>202</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>82</v>
@@ -9882,13 +9926,13 @@
         <v>82</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>341</v>
+        <v>119</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>342</v>
+        <v>203</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>343</v>
+        <v>204</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>82</v>
@@ -9906,13 +9950,13 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>335</v>
+        <v>196</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>104</v>
@@ -9921,30 +9965,30 @@
         <v>105</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>344</v>
+        <v>82</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>345</v>
+        <v>82</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>346</v>
+        <v>208</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>347</v>
+        <v>209</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>348</v>
+        <v>210</v>
       </c>
       <c r="AP64" t="s" s="2">
-        <v>349</v>
+        <v>82</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>350</v>
+        <v>214</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9964,23 +10008,19 @@
         <v>82</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>351</v>
+        <v>215</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>352</v>
+        <v>216</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>355</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>82</v>
       </c>
@@ -10028,7 +10068,7 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>350</v>
+        <v>218</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -10037,25 +10077,25 @@
         <v>92</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>170</v>
+        <v>82</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>356</v>
+        <v>82</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>357</v>
+        <v>82</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>358</v>
+        <v>113</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>359</v>
+        <v>82</v>
       </c>
       <c r="AP65" t="s" s="2">
         <v>82</v>
@@ -10063,14 +10103,14 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>360</v>
+        <v>338</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>360</v>
+        <v>220</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -10086,19 +10126,19 @@
         <v>82</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>361</v>
+        <v>140</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>362</v>
+        <v>141</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>363</v>
+        <v>221</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>364</v>
+        <v>143</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -10136,19 +10176,19 @@
         <v>82</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC66" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD66" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>360</v>
+        <v>222</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -10160,7 +10200,7 @@
         <v>104</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>82</v>
@@ -10169,13 +10209,13 @@
         <v>82</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>346</v>
+        <v>82</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>365</v>
+        <v>106</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>359</v>
+        <v>82</v>
       </c>
       <c r="AP66" t="s" s="2">
         <v>82</v>
@@ -10183,21 +10223,21 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>366</v>
+        <v>339</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>366</v>
+        <v>224</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>367</v>
+        <v>82</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>82</v>
@@ -10209,19 +10249,19 @@
         <v>93</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>368</v>
+        <v>225</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>369</v>
+        <v>226</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>370</v>
+        <v>227</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>371</v>
+        <v>228</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>372</v>
+        <v>229</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>82</v>
@@ -10270,34 +10310,34 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>366</v>
+        <v>230</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>170</v>
+        <v>105</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>373</v>
+        <v>82</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>374</v>
+        <v>231</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>375</v>
+        <v>232</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>376</v>
+        <v>82</v>
       </c>
       <c r="AP67" t="s" s="2">
         <v>82</v>
@@ -10305,14 +10345,14 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>377</v>
+        <v>340</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>377</v>
+        <v>234</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>378</v>
+        <v>82</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -10328,23 +10368,19 @@
         <v>82</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>379</v>
+        <v>215</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>380</v>
+        <v>216</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>383</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>82</v>
       </c>
@@ -10392,7 +10428,7 @@
         <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>377</v>
+        <v>218</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -10401,25 +10437,25 @@
         <v>92</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>384</v>
+        <v>82</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>385</v>
+        <v>82</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>386</v>
+        <v>113</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>387</v>
+        <v>82</v>
       </c>
       <c r="AP68" t="s" s="2">
         <v>82</v>
@@ -10427,21 +10463,21 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>388</v>
+        <v>341</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>388</v>
+        <v>236</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>82</v>
@@ -10450,19 +10486,19 @@
         <v>82</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>389</v>
+        <v>140</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>390</v>
+        <v>141</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>391</v>
+        <v>221</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>392</v>
+        <v>143</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -10500,31 +10536,31 @@
         <v>82</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC69" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD69" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>388</v>
+        <v>222</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>82</v>
@@ -10533,13 +10569,13 @@
         <v>82</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>393</v>
+        <v>82</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>394</v>
+        <v>106</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>395</v>
+        <v>82</v>
       </c>
       <c r="AP69" t="s" s="2">
         <v>82</v>
@@ -10547,10 +10583,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>396</v>
+        <v>342</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>396</v>
+        <v>238</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10558,10 +10594,10 @@
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>82</v>
@@ -10573,26 +10609,26 @@
         <v>93</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>397</v>
+        <v>108</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>398</v>
+        <v>239</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>399</v>
+        <v>240</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>168</v>
+        <v>241</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>400</v>
+        <v>242</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q70" s="2"/>
       <c r="R70" t="s" s="2">
-        <v>82</v>
+        <v>300</v>
       </c>
       <c r="S70" t="s" s="2">
         <v>82</v>
@@ -10634,34 +10670,34 @@
         <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>396</v>
+        <v>244</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>170</v>
+        <v>105</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>401</v>
+        <v>82</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>402</v>
+        <v>245</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>403</v>
+        <v>246</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>404</v>
+        <v>82</v>
       </c>
       <c r="AP70" t="s" s="2">
         <v>82</v>
@@ -10669,10 +10705,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>405</v>
+        <v>343</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>405</v>
+        <v>248</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10680,7 +10716,7 @@
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>92</v>
@@ -10695,20 +10731,18 @@
         <v>93</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>406</v>
+        <v>215</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>407</v>
+        <v>249</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>408</v>
+        <v>250</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>410</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>82</v>
       </c>
@@ -10756,7 +10790,7 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>405</v>
+        <v>252</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -10765,7 +10799,7 @@
         <v>92</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>411</v>
+        <v>104</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>105</v>
@@ -10774,27 +10808,27 @@
         <v>82</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>412</v>
+        <v>82</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>413</v>
+        <v>253</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>414</v>
+        <v>254</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP71" t="s" s="2">
-        <v>415</v>
+        <v>82</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>416</v>
+        <v>344</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>416</v>
+        <v>256</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10802,7 +10836,7 @@
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>92</v>
@@ -10814,29 +10848,29 @@
         <v>82</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>198</v>
+        <v>115</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>417</v>
+        <v>257</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>418</v>
+        <v>258</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>419</v>
+        <v>259</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>420</v>
+        <v>260</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q72" s="2"/>
       <c r="R72" t="s" s="2">
-        <v>82</v>
+        <v>345</v>
       </c>
       <c r="S72" t="s" s="2">
         <v>82</v>
@@ -10854,13 +10888,13 @@
         <v>82</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>421</v>
+        <v>82</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>422</v>
+        <v>82</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>423</v>
+        <v>82</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>82</v>
@@ -10878,7 +10912,7 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>416</v>
+        <v>262</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -10887,7 +10921,7 @@
         <v>92</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>424</v>
+        <v>104</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>105</v>
@@ -10899,10 +10933,10 @@
         <v>82</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>106</v>
+        <v>263</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>425</v>
+        <v>264</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>82</v>
@@ -10913,21 +10947,21 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>426</v>
+        <v>346</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>426</v>
+        <v>266</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>427</v>
+        <v>82</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>82</v>
@@ -10936,22 +10970,22 @@
         <v>82</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>428</v>
+        <v>267</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>429</v>
+        <v>268</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>430</v>
+        <v>259</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>431</v>
+        <v>269</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>82</v>
@@ -10976,13 +11010,13 @@
         <v>82</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>421</v>
+        <v>82</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>432</v>
+        <v>82</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>433</v>
+        <v>82</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>82</v>
@@ -11000,13 +11034,13 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>426</v>
+        <v>270</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>104</v>
@@ -11018,27 +11052,27 @@
         <v>82</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>434</v>
+        <v>82</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>435</v>
+        <v>271</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>436</v>
+        <v>272</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP73" t="s" s="2">
-        <v>437</v>
+        <v>82</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>438</v>
+        <v>347</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>438</v>
+        <v>274</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11049,7 +11083,7 @@
         <v>80</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>82</v>
@@ -11058,22 +11092,22 @@
         <v>82</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>439</v>
+        <v>275</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>440</v>
+        <v>276</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>441</v>
+        <v>277</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>442</v>
+        <v>278</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>443</v>
+        <v>279</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>82</v>
@@ -11122,13 +11156,13 @@
         <v>82</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>438</v>
+        <v>280</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>104</v>
@@ -11143,10 +11177,10 @@
         <v>82</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>444</v>
+        <v>281</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>445</v>
+        <v>282</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>82</v>
@@ -11157,10 +11191,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>446</v>
+        <v>348</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>446</v>
+        <v>284</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11180,21 +11214,23 @@
         <v>82</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>447</v>
+        <v>285</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>448</v>
+        <v>286</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="O75" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="O75" t="s" s="2">
+        <v>288</v>
+      </c>
       <c r="P75" t="s" s="2">
         <v>82</v>
       </c>
@@ -11218,13 +11254,13 @@
         <v>82</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>341</v>
+        <v>82</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>450</v>
+        <v>82</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>451</v>
+        <v>82</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>82</v>
@@ -11242,7 +11278,7 @@
         <v>82</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>446</v>
+        <v>289</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
@@ -11260,35 +11296,35 @@
         <v>82</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>452</v>
+        <v>82</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>453</v>
+        <v>290</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>454</v>
+        <v>291</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP75" t="s" s="2">
-        <v>455</v>
+        <v>82</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>456</v>
+        <v>349</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>456</v>
+        <v>349</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>82</v>
+        <v>350</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>92</v>
@@ -11300,22 +11336,22 @@
         <v>82</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K76" t="s" s="2">
         <v>198</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>457</v>
+        <v>351</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>458</v>
+        <v>352</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>459</v>
+        <v>353</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>460</v>
+        <v>354</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>82</v>
@@ -11340,13 +11376,13 @@
         <v>82</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>341</v>
+        <v>355</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>461</v>
+        <v>356</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>462</v>
+        <v>357</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>82</v>
@@ -11364,10 +11400,10 @@
         <v>82</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>456</v>
+        <v>349</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>92</v>
@@ -11379,30 +11415,30 @@
         <v>105</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>82</v>
+        <v>358</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>82</v>
+        <v>359</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>463</v>
+        <v>360</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>464</v>
+        <v>361</v>
       </c>
       <c r="AO76" t="s" s="2">
-        <v>82</v>
+        <v>362</v>
       </c>
       <c r="AP76" t="s" s="2">
-        <v>82</v>
+        <v>363</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>465</v>
+        <v>364</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>465</v>
+        <v>364</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11422,21 +11458,23 @@
         <v>82</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>466</v>
+        <v>365</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>467</v>
+        <v>366</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>468</v>
+        <v>367</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="O77" s="2"/>
+        <v>368</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>369</v>
+      </c>
       <c r="P77" t="s" s="2">
         <v>82</v>
       </c>
@@ -11484,7 +11522,7 @@
         <v>82</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>465</v>
+        <v>364</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
@@ -11499,30 +11537,30 @@
         <v>170</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>82</v>
+        <v>370</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>470</v>
+        <v>82</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>471</v>
+        <v>371</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>472</v>
+        <v>372</v>
       </c>
       <c r="AO77" t="s" s="2">
-        <v>82</v>
+        <v>373</v>
       </c>
       <c r="AP77" t="s" s="2">
-        <v>473</v>
+        <v>82</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>474</v>
+        <v>374</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>474</v>
+        <v>374</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11533,7 +11571,7 @@
         <v>80</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>82</v>
@@ -11542,19 +11580,19 @@
         <v>82</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>475</v>
+        <v>375</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>476</v>
+        <v>376</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>477</v>
+        <v>377</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>478</v>
+        <v>378</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -11604,13 +11642,13 @@
         <v>82</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>474</v>
+        <v>374</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>104</v>
@@ -11622,38 +11660,38 @@
         <v>82</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>479</v>
+        <v>82</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>481</v>
+        <v>379</v>
       </c>
       <c r="AO78" t="s" s="2">
-        <v>82</v>
+        <v>373</v>
       </c>
       <c r="AP78" t="s" s="2">
-        <v>482</v>
+        <v>82</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>483</v>
+        <v>380</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>483</v>
+        <v>380</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>82</v>
+        <v>381</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>82</v>
@@ -11662,22 +11700,22 @@
         <v>82</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>484</v>
+        <v>382</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>485</v>
+        <v>383</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>486</v>
+        <v>384</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>487</v>
+        <v>385</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>488</v>
+        <v>386</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>82</v>
@@ -11726,34 +11764,34 @@
         <v>82</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>483</v>
+        <v>380</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>489</v>
+        <v>170</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>82</v>
+        <v>387</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>490</v>
+        <v>388</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>491</v>
+        <v>389</v>
       </c>
       <c r="AO79" t="s" s="2">
-        <v>82</v>
+        <v>390</v>
       </c>
       <c r="AP79" t="s" s="2">
         <v>82</v>
@@ -11761,14 +11799,14 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>492</v>
+        <v>391</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>492</v>
+        <v>391</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>82</v>
+        <v>392</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
@@ -11784,19 +11822,23 @@
         <v>82</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>215</v>
+        <v>393</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>216</v>
+        <v>394</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N80" s="2"/>
-      <c r="O80" s="2"/>
+        <v>395</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>397</v>
+      </c>
       <c r="P80" t="s" s="2">
         <v>82</v>
       </c>
@@ -11844,7 +11886,7 @@
         <v>82</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>218</v>
+        <v>391</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
@@ -11853,25 +11895,25 @@
         <v>92</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>82</v>
+        <v>398</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>82</v>
+        <v>399</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="AO80" t="s" s="2">
-        <v>82</v>
+        <v>401</v>
       </c>
       <c r="AP80" t="s" s="2">
         <v>82</v>
@@ -11879,21 +11921,21 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>493</v>
+        <v>402</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>493</v>
+        <v>402</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>82</v>
@@ -11902,19 +11944,19 @@
         <v>82</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>140</v>
+        <v>403</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>141</v>
+        <v>404</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>221</v>
+        <v>405</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>143</v>
+        <v>406</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -11952,31 +11994,31 @@
         <v>82</v>
       </c>
       <c r="AB81" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC81" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD81" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>222</v>
+        <v>402</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>82</v>
@@ -11985,13 +12027,13 @@
         <v>82</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>82</v>
+        <v>407</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>106</v>
+        <v>408</v>
       </c>
       <c r="AO81" t="s" s="2">
-        <v>82</v>
+        <v>409</v>
       </c>
       <c r="AP81" t="s" s="2">
         <v>82</v>
@@ -11999,14 +12041,14 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>494</v>
+        <v>410</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>494</v>
+        <v>410</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>495</v>
+        <v>82</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -12019,25 +12061,25 @@
         <v>82</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J82" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>140</v>
+        <v>411</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>496</v>
+        <v>412</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>497</v>
+        <v>413</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>152</v>
+        <v>414</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>82</v>
@@ -12086,7 +12128,7 @@
         <v>82</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>498</v>
+        <v>410</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -12098,22 +12140,22 @@
         <v>104</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>82</v>
+        <v>415</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>82</v>
+        <v>416</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>106</v>
+        <v>417</v>
       </c>
       <c r="AO82" t="s" s="2">
-        <v>82</v>
+        <v>418</v>
       </c>
       <c r="AP82" t="s" s="2">
         <v>82</v>
@@ -12121,10 +12163,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>499</v>
+        <v>419</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>499</v>
+        <v>419</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12144,21 +12186,23 @@
         <v>82</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>500</v>
+        <v>420</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>501</v>
+        <v>421</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>502</v>
+        <v>422</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="O83" s="2"/>
+        <v>423</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>424</v>
+      </c>
       <c r="P83" t="s" s="2">
         <v>82</v>
       </c>
@@ -12206,7 +12250,7 @@
         <v>82</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>499</v>
+        <v>419</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
@@ -12215,36 +12259,36 @@
         <v>92</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>504</v>
+        <v>425</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>505</v>
+        <v>105</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>82</v>
+        <v>426</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>506</v>
+        <v>427</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>507</v>
+        <v>428</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP83" t="s" s="2">
-        <v>82</v>
+        <v>429</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>508</v>
+        <v>430</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>508</v>
+        <v>430</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12267,18 +12311,20 @@
         <v>82</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>500</v>
+        <v>198</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>509</v>
+        <v>431</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>510</v>
+        <v>432</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="O84" s="2"/>
+        <v>433</v>
+      </c>
+      <c r="O84" t="s" s="2">
+        <v>434</v>
+      </c>
       <c r="P84" t="s" s="2">
         <v>82</v>
       </c>
@@ -12302,13 +12348,13 @@
         <v>82</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>82</v>
+        <v>435</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>82</v>
+        <v>436</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>82</v>
+        <v>437</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>82</v>
@@ -12326,7 +12372,7 @@
         <v>82</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>508</v>
+        <v>430</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
@@ -12335,10 +12381,10 @@
         <v>92</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>504</v>
+        <v>438</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>505</v>
+        <v>105</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>82</v>
@@ -12347,10 +12393,10 @@
         <v>82</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>506</v>
+        <v>106</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>511</v>
+        <v>439</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>82</v>
@@ -12361,21 +12407,21 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>512</v>
+        <v>440</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>512</v>
+        <v>440</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>82</v>
+        <v>441</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>82</v>
@@ -12390,16 +12436,16 @@
         <v>198</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>513</v>
+        <v>442</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>514</v>
+        <v>443</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>515</v>
+        <v>444</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>516</v>
+        <v>445</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>82</v>
@@ -12424,13 +12470,13 @@
         <v>82</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>119</v>
+        <v>435</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>517</v>
+        <v>446</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>518</v>
+        <v>447</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>82</v>
@@ -12448,13 +12494,13 @@
         <v>82</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>512</v>
+        <v>440</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>104</v>
@@ -12466,27 +12512,27 @@
         <v>82</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>519</v>
+        <v>448</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>520</v>
+        <v>449</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>436</v>
+        <v>450</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP85" t="s" s="2">
-        <v>82</v>
+        <v>451</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>521</v>
+        <v>452</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>521</v>
+        <v>452</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12509,19 +12555,19 @@
         <v>82</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>198</v>
+        <v>453</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>522</v>
+        <v>454</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>523</v>
+        <v>455</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>524</v>
+        <v>456</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>525</v>
+        <v>457</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>82</v>
@@ -12546,13 +12592,13 @@
         <v>82</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>341</v>
+        <v>82</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>526</v>
+        <v>82</v>
       </c>
       <c r="Z86" t="s" s="2">
-        <v>527</v>
+        <v>82</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>82</v>
@@ -12570,7 +12616,7 @@
         <v>82</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>521</v>
+        <v>452</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
@@ -12588,13 +12634,13 @@
         <v>82</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>519</v>
+        <v>82</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>520</v>
+        <v>458</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>436</v>
+        <v>459</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>82</v>
@@ -12605,10 +12651,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>528</v>
+        <v>460</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>528</v>
+        <v>460</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12631,20 +12677,18 @@
         <v>82</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>529</v>
+        <v>198</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>530</v>
+        <v>461</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>531</v>
+        <v>462</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>533</v>
-      </c>
+        <v>463</v>
+      </c>
+      <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>82</v>
       </c>
@@ -12668,13 +12712,13 @@
         <v>82</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>82</v>
+        <v>355</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>82</v>
+        <v>464</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>82</v>
+        <v>465</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>82</v>
@@ -12692,7 +12736,7 @@
         <v>82</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>528</v>
+        <v>460</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>80</v>
@@ -12704,33 +12748,33 @@
         <v>104</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>534</v>
+        <v>105</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>82</v>
+        <v>466</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>535</v>
+        <v>467</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>536</v>
+        <v>468</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP87" t="s" s="2">
-        <v>82</v>
+        <v>469</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>537</v>
+        <v>470</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>537</v>
+        <v>470</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12753,18 +12797,20 @@
         <v>82</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>538</v>
+        <v>471</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>539</v>
+        <v>472</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O88" s="2"/>
+        <v>473</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>474</v>
+      </c>
       <c r="P88" t="s" s="2">
         <v>82</v>
       </c>
@@ -12788,13 +12834,13 @@
         <v>82</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>82</v>
+        <v>355</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>82</v>
+        <v>475</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>82</v>
+        <v>476</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>82</v>
@@ -12812,7 +12858,7 @@
         <v>82</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>537</v>
+        <v>470</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>80</v>
@@ -12833,10 +12879,10 @@
         <v>82</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>506</v>
+        <v>477</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>540</v>
+        <v>478</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>82</v>
@@ -12847,10 +12893,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>541</v>
+        <v>479</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>541</v>
+        <v>479</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12861,7 +12907,7 @@
         <v>80</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>82</v>
@@ -12870,19 +12916,19 @@
         <v>82</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>542</v>
+        <v>480</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>543</v>
+        <v>481</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>544</v>
+        <v>482</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>545</v>
+        <v>483</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -12932,13 +12978,13 @@
         <v>82</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>541</v>
+        <v>479</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>104</v>
@@ -12950,27 +12996,27 @@
         <v>82</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>82</v>
+        <v>484</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>546</v>
+        <v>485</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>547</v>
+        <v>486</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP89" t="s" s="2">
-        <v>82</v>
+        <v>487</v>
       </c>
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>548</v>
+        <v>488</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>548</v>
+        <v>488</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12981,7 +13027,7 @@
         <v>80</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>82</v>
@@ -12990,19 +13036,19 @@
         <v>82</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>549</v>
+        <v>489</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>550</v>
+        <v>490</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>551</v>
+        <v>491</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>552</v>
+        <v>492</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
@@ -13052,13 +13098,13 @@
         <v>82</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>548</v>
+        <v>488</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>104</v>
@@ -13070,27 +13116,27 @@
         <v>82</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>82</v>
+        <v>493</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>546</v>
+        <v>494</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>553</v>
+        <v>495</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP90" t="s" s="2">
-        <v>82</v>
+        <v>496</v>
       </c>
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>554</v>
+        <v>497</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>554</v>
+        <v>497</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13110,22 +13156,22 @@
         <v>82</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>484</v>
+        <v>498</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>555</v>
+        <v>499</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>557</v>
+        <v>501</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>558</v>
+        <v>502</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>82</v>
@@ -13174,7 +13220,7 @@
         <v>82</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>554</v>
+        <v>497</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>80</v>
@@ -13186,7 +13232,7 @@
         <v>104</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>105</v>
+        <v>503</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>82</v>
@@ -13195,10 +13241,10 @@
         <v>82</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>559</v>
+        <v>504</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>560</v>
+        <v>505</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>82</v>
@@ -13209,10 +13255,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>561</v>
+        <v>506</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>561</v>
+        <v>506</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13327,10 +13373,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>562</v>
+        <v>507</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>562</v>
+        <v>507</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13447,14 +13493,14 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>563</v>
+        <v>508</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>563</v>
+        <v>508</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>495</v>
+        <v>509</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
@@ -13476,10 +13522,10 @@
         <v>140</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>496</v>
+        <v>510</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>497</v>
+        <v>511</v>
       </c>
       <c r="N94" t="s" s="2">
         <v>143</v>
@@ -13534,7 +13580,7 @@
         <v>82</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>498</v>
+        <v>512</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
@@ -13569,10 +13615,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>564</v>
+        <v>513</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>564</v>
+        <v>513</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13580,7 +13626,7 @@
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>92</v>
@@ -13592,23 +13638,21 @@
         <v>82</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>198</v>
+        <v>514</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>565</v>
+        <v>515</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>566</v>
+        <v>516</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="O95" t="s" s="2">
-        <v>340</v>
-      </c>
+        <v>517</v>
+      </c>
+      <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
         <v>82</v>
       </c>
@@ -13632,13 +13676,13 @@
         <v>82</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>341</v>
+        <v>82</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>342</v>
+        <v>82</v>
       </c>
       <c r="Z95" t="s" s="2">
-        <v>343</v>
+        <v>82</v>
       </c>
       <c r="AA95" t="s" s="2">
         <v>82</v>
@@ -13656,34 +13700,34 @@
         <v>82</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>564</v>
+        <v>513</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>104</v>
+        <v>518</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>105</v>
+        <v>519</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>568</v>
+        <v>82</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>346</v>
+        <v>520</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>347</v>
+        <v>521</v>
       </c>
       <c r="AO95" t="s" s="2">
-        <v>348</v>
+        <v>82</v>
       </c>
       <c r="AP95" t="s" s="2">
         <v>82</v>
@@ -13691,10 +13735,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>569</v>
+        <v>522</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>569</v>
+        <v>522</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13714,23 +13758,21 @@
         <v>82</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>406</v>
+        <v>514</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>570</v>
+        <v>523</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>408</v>
+        <v>524</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="O96" t="s" s="2">
-        <v>410</v>
-      </c>
+        <v>517</v>
+      </c>
+      <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
         <v>82</v>
       </c>
@@ -13778,7 +13820,7 @@
         <v>82</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>569</v>
+        <v>522</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>80</v>
@@ -13787,36 +13829,36 @@
         <v>92</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>104</v>
+        <v>518</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>105</v>
+        <v>519</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>572</v>
+        <v>82</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>413</v>
+        <v>520</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>414</v>
+        <v>525</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP96" t="s" s="2">
-        <v>415</v>
+        <v>82</v>
       </c>
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>573</v>
+        <v>526</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>573</v>
+        <v>526</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13842,16 +13884,16 @@
         <v>198</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>574</v>
+        <v>527</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>575</v>
+        <v>528</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>576</v>
+        <v>529</v>
       </c>
       <c r="O97" t="s" s="2">
-        <v>420</v>
+        <v>530</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>82</v>
@@ -13876,13 +13918,13 @@
         <v>82</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>421</v>
+        <v>119</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>422</v>
+        <v>531</v>
       </c>
       <c r="Z97" t="s" s="2">
-        <v>423</v>
+        <v>532</v>
       </c>
       <c r="AA97" t="s" s="2">
         <v>82</v>
@@ -13900,7 +13942,7 @@
         <v>82</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>573</v>
+        <v>526</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>80</v>
@@ -13909,7 +13951,7 @@
         <v>92</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>424</v>
+        <v>104</v>
       </c>
       <c r="AJ97" t="s" s="2">
         <v>105</v>
@@ -13918,13 +13960,13 @@
         <v>82</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>82</v>
+        <v>533</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>106</v>
+        <v>534</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>425</v>
+        <v>450</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>82</v>
@@ -13935,14 +13977,14 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>577</v>
+        <v>535</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>577</v>
+        <v>535</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>427</v>
+        <v>82</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
@@ -13964,16 +14006,16 @@
         <v>198</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>428</v>
+        <v>536</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>429</v>
+        <v>537</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>430</v>
+        <v>538</v>
       </c>
       <c r="O98" t="s" s="2">
-        <v>431</v>
+        <v>539</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>82</v>
@@ -13998,13 +14040,13 @@
         <v>82</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>421</v>
+        <v>355</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>432</v>
+        <v>540</v>
       </c>
       <c r="Z98" t="s" s="2">
-        <v>433</v>
+        <v>541</v>
       </c>
       <c r="AA98" t="s" s="2">
         <v>82</v>
@@ -14022,7 +14064,7 @@
         <v>82</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>577</v>
+        <v>535</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>80</v>
@@ -14040,27 +14082,27 @@
         <v>82</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>434</v>
+        <v>533</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>435</v>
+        <v>534</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>436</v>
+        <v>450</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP98" t="s" s="2">
-        <v>437</v>
+        <v>82</v>
       </c>
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>578</v>
+        <v>542</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>578</v>
+        <v>542</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14071,7 +14113,7 @@
         <v>80</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>82</v>
@@ -14083,19 +14125,19 @@
         <v>82</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>83</v>
+        <v>543</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>579</v>
+        <v>544</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>580</v>
+        <v>545</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>487</v>
+        <v>546</v>
       </c>
       <c r="O99" t="s" s="2">
-        <v>488</v>
+        <v>547</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>82</v>
@@ -14144,41 +14186,1493 @@
         <v>82</v>
       </c>
       <c r="AF99" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="AN99" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="AO99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP99" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="100" hidden="true">
+      <c r="A100" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="B100" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="C100" s="2"/>
+      <c r="D100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E100" s="2"/>
+      <c r="F100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="O100" s="2"/>
+      <c r="P100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q100" s="2"/>
+      <c r="R100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM100" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AN100" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="AO100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP100" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="101" hidden="true">
+      <c r="A101" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="B101" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="C101" s="2"/>
+      <c r="D101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E101" s="2"/>
+      <c r="F101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="N101" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="O101" s="2"/>
+      <c r="P101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q101" s="2"/>
+      <c r="R101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM101" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="AN101" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="AO101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP101" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="102" hidden="true">
+      <c r="A102" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="B102" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="C102" s="2"/>
+      <c r="D102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E102" s="2"/>
+      <c r="F102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="N102" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="O102" s="2"/>
+      <c r="P102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q102" s="2"/>
+      <c r="R102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF102" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM102" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="AN102" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="AO102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP102" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="103" hidden="true">
+      <c r="A103" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="B103" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="C103" s="2"/>
+      <c r="D103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E103" s="2"/>
+      <c r="F103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="N103" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="O103" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="P103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q103" s="2"/>
+      <c r="R103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI103" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM103" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="AN103" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="AO103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP103" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="104" hidden="true">
+      <c r="A104" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="B104" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="C104" s="2"/>
+      <c r="D104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E104" s="2"/>
+      <c r="F104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G104" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="N104" s="2"/>
+      <c r="O104" s="2"/>
+      <c r="P104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q104" s="2"/>
+      <c r="R104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF104" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AG104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH104" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN104" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AO104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP104" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="105" hidden="true">
+      <c r="A105" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="B105" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="C105" s="2"/>
+      <c r="D105" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="E105" s="2"/>
+      <c r="F105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K105" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M105" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="N105" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="O105" s="2"/>
+      <c r="P105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q105" s="2"/>
+      <c r="R105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AF105" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AG105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI105" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AK105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN105" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AO105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP105" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="106" hidden="true">
+      <c r="A106" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="B106" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="C106" s="2"/>
+      <c r="D106" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="E106" s="2"/>
+      <c r="F106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I106" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="J106" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K106" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="N106" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="O106" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="P106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q106" s="2"/>
+      <c r="R106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF106" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="AG106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AK106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN106" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AO106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP106" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="107" hidden="true">
+      <c r="A107" t="s" s="2">
         <v>578</v>
       </c>
-      <c r="AG99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH99" t="s" s="2">
+      <c r="B107" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="C107" s="2"/>
+      <c r="D107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E107" s="2"/>
+      <c r="F107" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="G107" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J107" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K107" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L107" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="N107" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="O107" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="P107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q107" s="2"/>
+      <c r="R107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X107" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="Y107" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="Z107" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AA107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF107" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="AG107" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AH107" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI107" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL107" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="AM107" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AN107" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AO107" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AP107" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="108" hidden="true">
+      <c r="A108" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="B108" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="C108" s="2"/>
+      <c r="D108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E108" s="2"/>
+      <c r="F108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G108" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J108" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K108" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="L108" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="M108" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="N108" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="O108" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="P108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q108" s="2"/>
+      <c r="R108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF108" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="AG108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH108" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI108" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ108" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL108" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="AM108" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="AN108" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AO108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP108" t="s" s="2">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="109" hidden="true">
+      <c r="A109" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="B109" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="C109" s="2"/>
+      <c r="D109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E109" s="2"/>
+      <c r="F109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G109" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K109" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L109" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="M109" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="N109" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="O109" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="P109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q109" s="2"/>
+      <c r="R109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X109" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="Y109" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="Z109" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="AA109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF109" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="AG109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH109" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI109" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="AJ109" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM109" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AN109" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AO109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP109" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="110" hidden="true">
+      <c r="A110" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="B110" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="C110" s="2"/>
+      <c r="D110" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="E110" s="2"/>
+      <c r="F110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G110" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="AI99" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ99" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK99" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL99" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM99" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="AN99" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="AO99" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP99" t="s" s="2">
+      <c r="H110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K110" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L110" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="M110" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="N110" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="O110" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="P110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q110" s="2"/>
+      <c r="R110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X110" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="Y110" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="Z110" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AA110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF110" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="AG110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI110" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ110" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL110" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="AM110" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AN110" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AO110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP110" t="s" s="2">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="111" hidden="true">
+      <c r="A111" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="B111" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="C111" s="2"/>
+      <c r="D111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E111" s="2"/>
+      <c r="F111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K111" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L111" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="M111" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="N111" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="O111" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="P111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q111" s="2"/>
+      <c r="R111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF111" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="AG111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM111" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="AN111" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="AO111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP111" t="s" s="2">
         <v>82</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP99">
+  <autoFilter ref="A1:AP111">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -14188,7 +15682,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI98">
+  <conditionalFormatting sqref="A2:AI110">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/StructureDefinition-cls-obo-cmo-platelet-measurement.xlsx
+++ b/output/StructureDefinition-cls-obo-cmo-platelet-measurement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-10T10:38:26+01:00</t>
+    <t>2023-03-13T12:04:54+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4012,7 +4012,7 @@
         <v>206</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AE15" t="s" s="2">
         <v>207</v>

--- a/output/StructureDefinition-cls-obo-cmo-platelet-measurement.xlsx
+++ b/output/StructureDefinition-cls-obo-cmo-platelet-measurement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-13T12:04:54+01:00</t>
+    <t>2023-03-14T13:58:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-obo-cmo-platelet-measurement.xlsx
+++ b/output/StructureDefinition-cls-obo-cmo-platelet-measurement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-14T13:58:26+01:00</t>
+    <t>2023-03-14T20:28:45+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-obo-cmo-platelet-measurement.xlsx
+++ b/output/StructureDefinition-cls-obo-cmo-platelet-measurement.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://somewhere.org/fhir/uv/myig/StructureDefinition/cls-obo-cmo-platelet-measurement</t>
+    <t>http://hl7.org/fhir/de/myig/StructureDefinition/cls-obo-cmo-platelet-measurement</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-14T20:28:45+01:00</t>
+    <t>2023-03-15T20:18:50+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-obo-cmo-platelet-measurement.xlsx
+++ b/output/StructureDefinition-cls-obo-cmo-platelet-measurement.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/de/myig/StructureDefinition/cls-obo-cmo-platelet-measurement</t>
+    <t>http://fhir.org/de/StructureDefinition/cls-obo-cmo-platelet-measurement</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,13 +60,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-15T20:18:50+01:00</t>
+    <t>2023-03-16T15:14:40+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>HL7 International - [Some] Work Group</t>
+    <t>HL7 International - CDE Katalog Arbeitsgruppe</t>
   </si>
   <si>
     <t>Contact</t>

--- a/output/StructureDefinition-cls-obo-cmo-platelet-measurement.xlsx
+++ b/output/StructureDefinition-cls-obo-cmo-platelet-measurement.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://fhir.org/de/StructureDefinition/cls-obo-cmo-platelet-measurement</t>
+    <t>http://hl7.org/de/StructureDefinition/cls-obo-cmo-platelet-measurement</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-16T15:14:40+01:00</t>
+    <t>2023-03-16T17:46:04+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
